--- a/RESULTS/2018/B1 SET 6 [2.8..5.6] Single/Cov Fit .xlsx
+++ b/RESULTS/2018/B1 SET 6 [2.8..5.6] Single/Cov Fit .xlsx
@@ -385,799 +385,799 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>32</v>
-      </c>
       <c r="E1" s="1" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="n">
+      <c r="K1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="M1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>43</v>
-      </c>
       <c r="O1" s="1" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8333681331439881</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9188561297474037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8190398653135947</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1776117517368401</v>
+        <v>0.2787360759562128</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1489841062502842</v>
+        <v>0.2280300057573117</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1399670675128551</v>
+        <v>0.6957469497376654</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1329649321737891</v>
+        <v>0.3220811261336203</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6031204457537479</v>
+        <v>0.3496729479320504</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7410394224101323</v>
+        <v>0.3783333913900662</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7090385504210664</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8662251093925897</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1194753585958128</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09842763581575339</v>
+        <v>0.1609860844460738</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09192060071858424</v>
+        <v>0.7923450763691147</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08688906367264276</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5342022019651212</v>
+        <v>0.3532669437452445</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6684043336029452</v>
+        <v>0.3801173003970791</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8333681331439881</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7090385504210664</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9646528335593058</v>
+        <v>0.8716833685607682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.763820843167942</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6510945231362457</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4883374420577734</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6048925114238638</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5546627622694325</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5171324797171936</v>
+        <v>0.1377363050044424</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4656419335979814</v>
+        <v>0.1071701885175071</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4473288859414968</v>
+        <v>0.8403451484005747</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4322629509874649</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7267551568463669</v>
+        <v>0.3075341175484124</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8292179521797102</v>
+        <v>0.3308753967281376</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9188561297474037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9646528335593058</v>
+        <v>0.8716833685607682</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9021079685708748</v>
+        <v>0.9912578239261928</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5451231419113159</v>
+        <v>0.8971590046666393</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6641710350127288</v>
+        <v>0.8862644658988938</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.4445959664112384</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7299754418016589</v>
+        <v>0.5389798204549603</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6935283372040211</v>
+        <v>0.3363900861747871</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6401036298897276</v>
+        <v>0.2837615275688571</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6200504642234429</v>
+        <v>0.8445899453425479</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6031118346431561</v>
+        <v>0.3801335224260192</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7300625970111919</v>
+        <v>0.5692375196658916</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8000856671021886</v>
+        <v>0.6004195721895985</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.763820843167942</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9021079685708748</v>
+        <v>0.9912578239261928</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3184981687145709</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9011223345684091</v>
+        <v>0.8984362813051767</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.4883252150102924</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9217678271661733</v>
+        <v>0.2874853258299533</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8824893836074508</v>
+        <v>0.2382135930665961</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8657697291794526</v>
+        <v>0.841924805860261</v>
       </c>
       <c r="N6" t="n">
-        <v>0.850791593370065</v>
+        <v>0.3295519977362816</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6158845033327298</v>
+        <v>0.4871533352864434</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6268745834009036</v>
+        <v>0.5176005647312361</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8190398653135947</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8662251093925897</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6510945231362457</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5451231419113159</v>
+        <v>0.8971590046666393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3184981687145709</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1435785173973788</v>
+        <v>0.9734693208365283</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2039935849244066</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1756260185762275</v>
+        <v>0.3097020075422921</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1567818467170752</v>
+        <v>0.154632063314339</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1338305111972082</v>
+        <v>0.1222832674760745</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1263032356460502</v>
+        <v>0.9190308255374054</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1202793027599523</v>
+        <v>0.1843608719150084</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6572522902855967</v>
+        <v>0.3571941007585761</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7594052937828573</v>
+        <v>0.382072898359466</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4883374420577734</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6641710350127288</v>
+        <v>0.8862644658988938</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9011223345684091</v>
+        <v>0.8984362813051767</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1435785173973788</v>
+        <v>0.9734693208365283</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.2466427054947357</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.3206466404120449</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9984437465199915</v>
+        <v>0.1706764226479466</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.1378996029960749</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.9839145327175304</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9924783518523321</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4242868862772166</v>
+        <v>0.4157268276730858</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3972805903420004</v>
+        <v>0.4410057215923135</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6048925114238638</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.4445959664112384</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2039935849244066</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.2466427054947357</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9964622257091275</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9886095113648001</v>
+        <v>0.9815552464906573</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9685705770485875</v>
+        <v>0.9520357754910048</v>
       </c>
       <c r="M9" t="n">
-        <v>0.958238194802042</v>
+        <v>0.2478141669223425</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9482381954295083</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5078129172957191</v>
+        <v>0.4289925347092349</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4924959942320283</v>
+        <v>0.4540489467846217</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5546627622694325</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7299754418016589</v>
+        <v>0.5389798204549603</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.4883252150102924</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1756260185762275</v>
+        <v>0.3097020075422921</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.3206466404120449</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9964622257091275</v>
+        <v>0.9892170325671797</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999984</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9977251660949651</v>
+        <v>0.9442798674991847</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9011223345684091</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9782132552864342</v>
+        <v>0.315701341604083</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9705639699555703</v>
+        <v>0.9677703973004493</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4722393804015876</v>
+        <v>0.4585045481571946</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4510337016140302</v>
+        <v>0.4866774023089554</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1776117517368401</v>
+        <v>0.2787360759562128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1194753585958128</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5171324797171936</v>
+        <v>0.1377363050044424</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6935283372040211</v>
+        <v>0.3363900861747871</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9217678271661733</v>
+        <v>0.2874853258299533</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1567818467170752</v>
+        <v>0.154632063314339</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9984437465199915</v>
+        <v>0.1706764226479466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9886095113648001</v>
+        <v>0.9815552464906573</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9977251660949651</v>
+        <v>0.9442798674991847</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9947192616169178</v>
+        <v>0.9924502498932439</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9897938570711513</v>
+        <v>0.1767967984187028</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9842523533393581</v>
+        <v>0.9964622257091275</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4452590561985045</v>
+        <v>0.3840317351154602</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4204779344937664</v>
+        <v>0.4047042886721034</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1489841062502842</v>
+        <v>0.2280300057573117</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09842763581575339</v>
+        <v>0.1609860844460738</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4656419335979814</v>
+        <v>0.1071701885175071</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6401036298897276</v>
+        <v>0.2837615275688571</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8824893836074508</v>
+        <v>0.2382135930665961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1338305111972082</v>
+        <v>0.1222832674760745</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.1378996029960749</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9685705770485875</v>
+        <v>0.9520357754910048</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9011223345684091</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9947192616169178</v>
+        <v>0.9924502498932439</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9991766142734287</v>
+        <v>0.1452766637659334</v>
       </c>
       <c r="N12" t="n">
-        <v>0.997126214894948</v>
+        <v>0.9789047620517961</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4075479406802537</v>
+        <v>0.3558414352366704</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3791253842667704</v>
+        <v>0.3738671869716673</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1399670675128551</v>
+        <v>0.6957469497376654</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09192060071858424</v>
+        <v>0.7923450763691147</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4473288859414968</v>
+        <v>0.8403451484005747</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6200504642234429</v>
+        <v>0.8445899453425479</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8657697291794526</v>
+        <v>0.841924805860261</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1263032356460502</v>
+        <v>0.9190308255374054</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.9839145327175304</v>
       </c>
       <c r="I13" t="n">
-        <v>0.958238194802042</v>
+        <v>0.2478141669223425</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9782132552864342</v>
+        <v>0.315701341604083</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9897938570711513</v>
+        <v>0.1767967984187028</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9991766142734287</v>
+        <v>0.1452766637659334</v>
       </c>
       <c r="M13" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9993761788668439</v>
+        <v>0.2045216357987829</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3938716898540338</v>
+        <v>0.4537144223342185</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3645335635008909</v>
+        <v>0.477822089064046</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1329649321737891</v>
+        <v>0.3220811261336203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08688906367264276</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4322629509874649</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6031118346431561</v>
+        <v>0.3801335224260192</v>
       </c>
       <c r="F14" t="n">
-        <v>0.850791593370065</v>
+        <v>0.3295519977362816</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1202793027599523</v>
+        <v>0.1843608719150084</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9924783518523321</v>
+        <v>0.200093059220486</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9482381954295083</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9705639699555703</v>
+        <v>0.9677703973004493</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9842523533393581</v>
+        <v>0.9964622257091275</v>
       </c>
       <c r="L14" t="n">
-        <v>0.997126214894948</v>
+        <v>0.9789047620517961</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9993761788668439</v>
+        <v>0.2045216357987829</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3824810641833339</v>
+        <v>0.4039001982350582</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3525475378753791</v>
+        <v>0.4264785241417594</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6031204457537479</v>
+        <v>0.3496729479320504</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5342022019651212</v>
+        <v>0.3532669437452445</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7267551568463669</v>
+        <v>0.3075341175484124</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7300625970111919</v>
+        <v>0.5692375196658916</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6158845033327298</v>
+        <v>0.4871533352864434</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6572522902855967</v>
+        <v>0.3571941007585761</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4242868862772166</v>
+        <v>0.4157268276730858</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5078129172957191</v>
+        <v>0.4289925347092349</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4722393804015876</v>
+        <v>0.4585045481571946</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4452590561985045</v>
+        <v>0.3840317351154602</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4075479406802537</v>
+        <v>0.3558414352366704</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3938716898540338</v>
+        <v>0.4537144223342185</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3824810641833339</v>
+        <v>0.4039001982350582</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9748616917615626</v>
+        <v>0.9986082221908009</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7410394224101323</v>
+        <v>0.3783333913900662</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6684043336029452</v>
+        <v>0.3801173003970791</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8292179521797102</v>
+        <v>0.3308753967281376</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8000856671021886</v>
+        <v>0.6004195721895985</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6268745834009036</v>
+        <v>0.5176005647312361</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7594052937828573</v>
+        <v>0.382072898359466</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3972805903420004</v>
+        <v>0.4410057215923135</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4924959942320283</v>
+        <v>0.4540489467846217</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4510337016140302</v>
+        <v>0.4866774023089554</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4204779344937664</v>
+        <v>0.4047042886721034</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3791253842667704</v>
+        <v>0.3738671869716673</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3645335635008909</v>
+        <v>0.477822089064046</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3525475378753791</v>
+        <v>0.4264785241417594</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9748616917615626</v>
+        <v>0.9986082221908009</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1201,19 +1201,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="E1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>33</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>17</v>
       </c>
       <c r="G1" s="1" t="n">
         <v>5</v>
@@ -1221,117 +1221,117 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9715412042515472</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.7746182614176115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8659503811327621</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9180232507151763</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.8737306524408875</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9497979102505976</v>
+        <v>0.5611891528086586</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.9188405370792183</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0.7721631910893921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.8984362813051767</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9715412042515472</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9180232507151763</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9497979102505976</v>
+        <v>0.5611891528086586</v>
       </c>
       <c r="E6" t="n">
         <v>0.7721631910893921</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8984362813051767</v>
+        <v>0.5651793414145034</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1339,19 +1339,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>0.7746182614176115</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.8737306524408875</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.9188405370792183</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.7746182614176115</v>
-      </c>
       <c r="E7" t="n">
+        <v>0.8984362813051767</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.5651793414145034</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8984362813051767</v>
       </c>
       <c r="G7" t="n">
         <v>0.9999999999999999</v>
@@ -1378,96 +1378,96 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>30</v>
-      </c>
       <c r="E1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.3874617546197744</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635598</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8659503811327621</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.2958259168869475</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.2129359758219215</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.5681088836017403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6590993355898472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.7098623230043076</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="F5" t="n">
         <v>0.2331930244846713</v>
@@ -1475,22 +1475,22 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6590993355898472</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7098623230043076</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5681088836017403</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="E6" t="n">
         <v>0.2331930244846713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1514,13 +1514,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>30</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>34</v>
@@ -1528,53 +1528,53 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993688</v>
+        <v>0.9647147743635603</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9647147743635603</v>
+        <v>0.8659503811327626</v>
       </c>
       <c r="E2" t="n">
-        <v>0.520639009577996</v>
+        <v>0.6243486396460524</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635603</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993688</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8659503811327626</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.4078597798256569</v>
+        <v>0.520639009577996</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9647147743635603</v>
+        <v>0.8659503811327626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8659503811327626</v>
+        <v>0.9632363915993688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6243486396460524</v>
+        <v>0.4078597798256569</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1582,13 +1582,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
+        <v>0.6243486396460524</v>
+      </c>
+      <c r="C5" t="n">
         <v>0.520639009577996</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.4078597798256569</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6243486396460524</v>
       </c>
       <c r="E5" t="n">
         <v>0.9999999999999998</v>
@@ -1615,55 +1615,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9647147743635599</v>
+        <v>0.8659503811327622</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8659503811327622</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9647147743635599</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8659503811327622</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1687,18 +1687,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>0.7193914949746981</v>
@@ -1706,13 +1706,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>0.7193914949746981</v>
       </c>
       <c r="C3" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1872,469 +1872,469 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>32</v>
-      </c>
       <c r="E1" s="1" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="n">
         <v>35</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>38</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>39</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8333681331439882</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.9188561297474037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.8003773147006982</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1776117517368401</v>
+        <v>0.2491087035642826</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1489841062502842</v>
+        <v>0.2280300057573117</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1399670675128551</v>
+        <v>0.7215097334440753</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1329649321737891</v>
+        <v>0.3220811261336203</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9933212618181999</v>
+        <v>0.8111083043072661</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7090385504210664</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.892628352092997</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.8999947547036837</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1194753585958128</v>
+        <v>0.1776117517368401</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09842763581575339</v>
+        <v>0.1609860844460738</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09192060071858424</v>
+        <v>0.8190398653135947</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08688906367264276</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9483459191545407</v>
+        <v>0.8128509213144867</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8333681331439882</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7090385504210664</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8712925590442896</v>
+        <v>0.8716833685607683</v>
       </c>
       <c r="F4" t="n">
-        <v>0.763820843167942</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.668063166949042</v>
+        <v>0.9840532252592258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4883374420577734</v>
+        <v>0.9438080184696702</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6048925114238638</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5546627622694325</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5171324797171936</v>
+        <v>0.1194753585958128</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4656419335979814</v>
+        <v>0.1071701885175071</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4473288859414968</v>
+        <v>0.8662251093925897</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4322629509874649</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8666837512467015</v>
+        <v>0.7414094260826336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.9188561297474037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8712925590442896</v>
+        <v>0.8716833685607683</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.991257823926193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4266134121800872</v>
+        <v>0.8971590046666394</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8092409683013462</v>
+        <v>0.8949338658983506</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9015811977009964</v>
+        <v>0.4445959664112384</v>
       </c>
       <c r="J5" t="n">
-        <v>0.865926691536365</v>
+        <v>0.5389798204549603</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8353368705002284</v>
+        <v>0.3058774640615416</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7868778240478195</v>
+        <v>0.2837615275688571</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7675799923406653</v>
+        <v>0.8601084634342638</v>
       </c>
       <c r="N5" t="n">
-        <v>0.750812138023653</v>
+        <v>0.3801335224260192</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5709743899761875</v>
+        <v>0.9635602581095074</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.763820843167942</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.991257823926193</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.913300224707</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.4883252150102924</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9217678271661733</v>
+        <v>0.2587154529282152</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8824893836074508</v>
+        <v>0.2382135930665961</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8657697291794526</v>
+        <v>0.8617648797609645</v>
       </c>
       <c r="N6" t="n">
-        <v>0.850791593370065</v>
+        <v>0.3295519977362816</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4359416840010828</v>
+        <v>0.92117670687452</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892628352092997</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.668063166949042</v>
+        <v>0.9840532252592258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4266134121800872</v>
+        <v>0.8971590046666394</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3202592726206944</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1411560936960031</v>
+        <v>0.9871904188586236</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2025806211328364</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1736364586586464</v>
+        <v>0.3097020075422921</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1544987483393246</v>
+        <v>0.1353994643106511</v>
       </c>
       <c r="L7" t="n">
-        <v>0.131355346037709</v>
+        <v>0.1222832674760745</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1238252729292282</v>
+        <v>0.9383642748471865</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1178277932740061</v>
+        <v>0.1843608719150084</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8705192154340031</v>
+        <v>0.7876251031811436</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.8003773147006982</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.8999947547036837</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4883374420577734</v>
+        <v>0.9438080184696702</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8092409683013462</v>
+        <v>0.8949338658983506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.913300224707</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1411560936960031</v>
+        <v>0.9871904188586236</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.2436421532582382</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.3192742534746081</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9984437465199916</v>
+        <v>0.147133289623053</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.1337076090005611</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.9808600895817819</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9924783518523321</v>
+        <v>0.1963343970346767</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1963994605490239</v>
+        <v>0.8085613883444328</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6048925114238638</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9015811977009964</v>
+        <v>0.4445959664112384</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2025806211328364</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.2436421532582382</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9964622257091272</v>
+        <v>0.9892170325671799</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9886095113648001</v>
+        <v>0.9669289432387536</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9685705770485875</v>
+        <v>0.9520357754910048</v>
       </c>
       <c r="M9" t="n">
-        <v>0.958238194802042</v>
+        <v>0.2484694288453062</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9482381954295083</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="O9" t="n">
-        <v>0.281060828845354</v>
+        <v>0.5272610232476542</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5546627622694325</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="E10" t="n">
-        <v>0.865926691536365</v>
+        <v>0.5389798204549603</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.4883252150102924</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1736364586586464</v>
+        <v>0.3097020075422921</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.3192742534746081</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9964622257091272</v>
+        <v>0.9892170325671799</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999984</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9977251660949651</v>
+        <v>0.9217678271661733</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9011223345684092</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9782132552864342</v>
+        <v>0.3184981687145709</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9705639699555703</v>
+        <v>0.9677703973004493</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2415173466634291</v>
+        <v>0.6120321408226764</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2342,234 +2342,234 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
+        <v>0.2491087035642826</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.1776117517368401</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.1194753585958128</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.5171324797171936</v>
-      </c>
       <c r="E11" t="n">
-        <v>0.8353368705002284</v>
+        <v>0.3058774640615416</v>
       </c>
       <c r="F11" t="n">
+        <v>0.2587154529282152</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1353994643106511</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.147133289623053</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9669289432387536</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.9217678271661733</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1544987483393246</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9984437465199916</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9886095113648001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9977251660949651</v>
       </c>
       <c r="K11" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9947192616169179</v>
+        <v>0.9984437465199915</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9897938570711513</v>
+        <v>0.1567818467170752</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9842523533393581</v>
+        <v>0.9886095113648001</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2149897881492324</v>
+        <v>0.3912041418027957</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1489841062502842</v>
+        <v>0.2280300057573117</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09842763581575339</v>
+        <v>0.1609860844460738</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4656419335979814</v>
+        <v>0.1071701885175071</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7868778240478195</v>
+        <v>0.2837615275688571</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8824893836074508</v>
+        <v>0.2382135930665961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.131355346037709</v>
+        <v>0.1222832674760745</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.1337076090005611</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9685705770485875</v>
+        <v>0.9520357754910048</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9856686939464007</v>
+        <v>0.9011223345684092</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9947192616169179</v>
+        <v>0.9984437465199915</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9991766142734289</v>
+        <v>0.1435785173973788</v>
       </c>
       <c r="N12" t="n">
-        <v>0.997126214894948</v>
+        <v>0.9789047620517961</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1827980123334747</v>
+        <v>0.3676597635477543</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1399670675128551</v>
+        <v>0.7215097334440753</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09192060071858424</v>
+        <v>0.8190398653135947</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4473288859414968</v>
+        <v>0.8662251093925897</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7675799923406653</v>
+        <v>0.8601084634342638</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8657697291794526</v>
+        <v>0.8617648797609645</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1238252729292282</v>
+        <v>0.9383642748471865</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.9808600895817819</v>
       </c>
       <c r="I13" t="n">
-        <v>0.958238194802042</v>
+        <v>0.2484694288453062</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9782132552864342</v>
+        <v>0.3184981687145709</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9897938570711513</v>
+        <v>0.1567818467170752</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9991766142734289</v>
+        <v>0.1435785173973788</v>
       </c>
       <c r="M13" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9993761788668439</v>
+        <v>0.2039935849244066</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1724642360847758</v>
+        <v>0.805502169127748</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1329649321737891</v>
+        <v>0.3220811261336203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08688906367264276</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4322629509874649</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="E14" t="n">
-        <v>0.750812138023653</v>
+        <v>0.3801335224260192</v>
       </c>
       <c r="F14" t="n">
-        <v>0.850791593370065</v>
+        <v>0.3295519977362816</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1178277932740061</v>
+        <v>0.1843608719150084</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9924783518523321</v>
+        <v>0.1963343970346767</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9482381954295083</v>
+        <v>0.9940494262005268</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9705639699555703</v>
+        <v>0.9677703973004493</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9842523533393581</v>
+        <v>0.9886095113648001</v>
       </c>
       <c r="L14" t="n">
-        <v>0.997126214894948</v>
+        <v>0.9789047620517961</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9993761788668439</v>
+        <v>0.2039935849244066</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1643648415937586</v>
+        <v>0.466081130502594</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9933212618181999</v>
+        <v>0.8111083043072661</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9483459191545407</v>
+        <v>0.8128509213144867</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8666837512467015</v>
+        <v>0.7414094260826336</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5709743899761875</v>
+        <v>0.9635602581095074</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4359416840010828</v>
+        <v>0.92117670687452</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8705192154340031</v>
+        <v>0.7876251031811436</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1963994605490239</v>
+        <v>0.8085613883444328</v>
       </c>
       <c r="I15" t="n">
-        <v>0.281060828845354</v>
+        <v>0.5272610232476542</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2415173466634291</v>
+        <v>0.6120321408226764</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2149897881492324</v>
+        <v>0.3912041418027957</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1827980123334747</v>
+        <v>0.3676597635477543</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1724642360847758</v>
+        <v>0.805502169127748</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1643648415937586</v>
+        <v>0.466081130502594</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2593,439 +2593,439 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>32</v>
-      </c>
       <c r="E1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>36</v>
-      </c>
       <c r="J1" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="n">
         <v>39</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8333681331439882</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.8715607685519557</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7923450763691147</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.2787360759562128</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1776117517368401</v>
+        <v>0.2491087035642826</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1489841062502842</v>
+        <v>0.2280300057573117</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1399670675128551</v>
+        <v>0.6738670404055415</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1329649321737891</v>
+        <v>0.3220811261336203</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635598</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7090385504210664</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.878896552082704</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8403451484005747</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1194753585958128</v>
+        <v>0.1776117517368401</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09842763581575339</v>
+        <v>0.1609860844460738</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09192060071858424</v>
+        <v>0.6696211750227676</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08688906367264276</v>
+        <v>0.2382965135528327</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8333681331439882</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7090385504210664</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999986</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.763820843167942</v>
+        <v>0.8112522023724603</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9646528335593058</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6336436995171795</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4883374420577734</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6731407481616737</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6048925114238638</v>
+        <v>0.1377363050044424</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5171324797171936</v>
+        <v>0.1194753585958128</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4656419335979814</v>
+        <v>0.1071701885175071</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4473288859414968</v>
+        <v>0.5980392574573217</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4322629509874649</v>
+        <v>0.1663181554402454</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.8715607685519557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.878896552082704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.763820843167942</v>
+        <v>0.8112522023724603</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9021079685708747</v>
+        <v>0.9644118375410595</v>
       </c>
       <c r="G5" t="n">
-        <v>0.315701341604083</v>
+        <v>0.8485768683303143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.5819320158540163</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.3832155956872483</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9217678271661733</v>
+        <v>0.3517557260045069</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8824893836074508</v>
+        <v>0.3285729288829606</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8657697291794526</v>
+        <v>0.9287249509954499</v>
       </c>
       <c r="N5" t="n">
-        <v>0.850791593370065</v>
+        <v>0.4274495521604452</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9646528335593058</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9021079685708747</v>
+        <v>0.9644118375410595</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5334660419546353</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6641710350127288</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8335477810461152</v>
+        <v>0.4883252150102924</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.2874853258299533</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6935283372040211</v>
+        <v>0.2587154529282152</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6401036298897276</v>
+        <v>0.2382135930665961</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6200504642234429</v>
+        <v>0.8061910587125307</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6031118346431561</v>
+        <v>0.3295519977362816</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7923450763691147</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8403451484005747</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6336436995171795</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.315701341604083</v>
+        <v>0.8485768683303143</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5334660419546353</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1452766637659334</v>
+        <v>0.9965486819122766</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2478141669223425</v>
+        <v>0.3097020075422921</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2045216357987829</v>
+        <v>0.154632063314339</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1582989066267929</v>
+        <v>0.1353994643106511</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1356148332925021</v>
+        <v>0.1222832674760745</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1281175418562842</v>
+        <v>0.6533195224448666</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1220895945984948</v>
+        <v>0.1843608719150084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4883374420577734</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6641710350127288</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1452766637659334</v>
+        <v>0.9965486819122766</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9520357754910049</v>
+        <v>0.3157422090468101</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.1612685265191792</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9984437465199915</v>
+        <v>0.1418367385805638</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.1285073388856262</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.6732491008223195</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9924783518523321</v>
+        <v>0.1911282265511063</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6731407481616737</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.5819320158540163</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8335477810461152</v>
+        <v>0.4883252150102924</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2478141669223425</v>
+        <v>0.3097020075422921</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9520357754910049</v>
+        <v>0.3157422090468101</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9940494262005267</v>
+        <v>0.9442798674991847</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9669289432387536</v>
+        <v>0.9217678271661733</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9376716919690321</v>
+        <v>0.9011223345684092</v>
       </c>
       <c r="M9" t="n">
-        <v>0.924168606825436</v>
+        <v>0.627214673782671</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9116453900451517</v>
+        <v>0.9677703973004493</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.2787360759562128</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6048925114238638</v>
+        <v>0.1377363050044424</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.3832155956872483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.2874853258299533</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2045216357987829</v>
+        <v>0.154632063314339</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.1612685265191792</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9940494262005267</v>
+        <v>0.9442798674991847</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9886095113648001</v>
+        <v>0.9977251660949648</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9685705770485875</v>
+        <v>0.9924502498932439</v>
       </c>
       <c r="M10" t="n">
-        <v>0.958238194802042</v>
+        <v>0.4672097141520237</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9482381954295083</v>
+        <v>0.9964622257091275</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3033,175 +3033,175 @@
         <v>39</v>
       </c>
       <c r="B11" t="n">
+        <v>0.2491087035642826</v>
+      </c>
+      <c r="C11" t="n">
         <v>0.1776117517368401</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.1194753585958128</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.5171324797171936</v>
-      </c>
       <c r="E11" t="n">
+        <v>0.3517557260045069</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2587154529282152</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1353994643106511</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1418367385805638</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.9217678271661733</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.6935283372040211</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1582989066267929</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9984437465199915</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9669289432387536</v>
-      </c>
       <c r="J11" t="n">
-        <v>0.9886095113648001</v>
+        <v>0.9977251660949648</v>
       </c>
       <c r="K11" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9947192616169179</v>
+        <v>0.9984437465199915</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9897938570711513</v>
+        <v>0.4382377304024423</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9842523533393581</v>
+        <v>0.9886095113648001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1489841062502842</v>
+        <v>0.2280300057573117</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09842763581575339</v>
+        <v>0.1609860844460738</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4656419335979814</v>
+        <v>0.1071701885175071</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8824893836074508</v>
+        <v>0.3285729288829606</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6401036298897276</v>
+        <v>0.2382135930665961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1356148332925021</v>
+        <v>0.1222832674760745</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9988863295551108</v>
+        <v>0.1285073388856262</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9376716919690321</v>
+        <v>0.9011223345684092</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9685705770485875</v>
+        <v>0.9924502498932439</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9947192616169179</v>
+        <v>0.9984437465199915</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9991766142734289</v>
+        <v>0.4159628639194541</v>
       </c>
       <c r="N12" t="n">
-        <v>0.997126214894948</v>
+        <v>0.9789047620517961</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1399670675128551</v>
+        <v>0.6738670404055415</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09192060071858424</v>
+        <v>0.6696211750227676</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4473288859414968</v>
+        <v>0.5980392574573217</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8657697291794526</v>
+        <v>0.9287249509954499</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6200504642234429</v>
+        <v>0.8061910587125307</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1281175418562842</v>
+        <v>0.6533195224448666</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9961596627210944</v>
+        <v>0.6732491008223195</v>
       </c>
       <c r="I13" t="n">
-        <v>0.924168606825436</v>
+        <v>0.627214673782671</v>
       </c>
       <c r="J13" t="n">
-        <v>0.958238194802042</v>
+        <v>0.4672097141520237</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9897938570711513</v>
+        <v>0.4382377304024423</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9991766142734289</v>
+        <v>0.4159628639194541</v>
       </c>
       <c r="M13" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9993761788668439</v>
+        <v>0.5059247740178102</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1329649321737891</v>
+        <v>0.3220811261336203</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08688906367264276</v>
+        <v>0.2382965135528327</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4322629509874649</v>
+        <v>0.1663181554402454</v>
       </c>
       <c r="E14" t="n">
-        <v>0.850791593370065</v>
+        <v>0.4274495521604452</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6031118346431561</v>
+        <v>0.3295519977362816</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1220895945984948</v>
+        <v>0.1843608719150084</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9924783518523321</v>
+        <v>0.1911282265511063</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9116453900451517</v>
+        <v>0.9677703973004493</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9482381954295083</v>
+        <v>0.9964622257091275</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9842523533393581</v>
+        <v>0.9886095113648001</v>
       </c>
       <c r="L14" t="n">
-        <v>0.997126214894948</v>
+        <v>0.9789047620517961</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9993761788668439</v>
+        <v>0.5059247740178102</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3225,532 +3225,532 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="L1" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>38</v>
-      </c>
       <c r="M1" s="1" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8333681331439881</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.871560768551956</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7923450763691147</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.2787360759562128</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1776117517368401</v>
+        <v>0.6243486396460526</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.8111083043072661</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7090385504210664</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.289538393766805</v>
+        <v>0.878896552082704</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8403451484005747</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1194753585958128</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.8128509213144867</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8333681331439881</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="C4" t="n">
+        <v>0.9632363915993691</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8112522023724603</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9180232507151763</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.984053225259226</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9661145249305612</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2895383937668051</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1377363050044424</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4078597798256571</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.7090385504210664</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.9999999999999986</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.763820843167942</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9646528335593058</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6336436995171795</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4883374420577734</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.6731407481616737</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6048925114238638</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5171324797171936</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5546627622694325</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.8712925590442898</v>
+        <v>0.7414094260826336</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.871560768551956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.289538393766805</v>
+        <v>0.878896552082704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.763820843167942</v>
+        <v>0.8112522023724603</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9021079685708748</v>
+        <v>0.9644118375410596</v>
       </c>
       <c r="G5" t="n">
-        <v>0.315701341604083</v>
+        <v>0.8485768683303143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.5819320158540163</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.3832155956872483</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9217678271661733</v>
+        <v>0.69982046883687</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.8939986958459575</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.990847012226948</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9646528335593058</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9021079685708748</v>
+        <v>0.9644118375410596</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5334660419546353</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6641710350127288</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.4883252150102922</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.2874853258299533</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6935283372040211</v>
+        <v>0.6212451433533892</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7299754418016589</v>
+        <v>0.8908604931488593</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9687875471945941</v>
+        <v>0.92117670687452</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7923450763691147</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8403451484005747</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6336436995171795</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.315701341604083</v>
+        <v>0.8485768683303143</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5334660419546353</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1452766637659334</v>
+        <v>0.9965486819122765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2478141669223425</v>
+        <v>0.309702007542292</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2045216357987829</v>
+        <v>0.154632063314339</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1582989066267929</v>
+        <v>0.4273034161147678</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1767967984187028</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4148087179732577</v>
+        <v>0.7876251031811436</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4883374420577734</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6641710350127288</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1452766637659334</v>
+        <v>0.9965486819122765</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9520357754910049</v>
+        <v>0.3157422090468101</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.1612685265191792</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9984437465199915</v>
+        <v>0.4314279632660111</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8092409683013462</v>
+        <v>0.8010231130736929</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6731407481616737</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.5819320158540163</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8335477810461153</v>
+        <v>0.4883252150102922</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2478141669223425</v>
+        <v>0.309702007542292</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9520357754910049</v>
+        <v>0.3157422090468101</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9940494262005268</v>
+        <v>0.9442798674991846</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9669289432387536</v>
+        <v>0.9802605839149038</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9815552464906573</v>
+        <v>0.763820843167942</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9415491058899723</v>
+        <v>0.6120321408226764</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.2787360759562128</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.2017130872970727</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6048925114238638</v>
+        <v>0.1377363050044424</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.3832155956872483</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.2874853258299533</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2045216357987829</v>
+        <v>0.154632063314339</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.1612685265191792</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9940494262005268</v>
+        <v>0.9442798674991846</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9886095113648001</v>
+        <v>0.8659266915363651</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9964622257091272</v>
+        <v>0.5546627622694326</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9015811977009962</v>
+        <v>0.4226611546511724</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1776117517368401</v>
+        <v>0.6243486396460526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1194753585958128</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5171324797171936</v>
+        <v>0.4078597798256571</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9217678271661733</v>
+        <v>0.69982046883687</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6935283372040211</v>
+        <v>0.6212451433533892</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1582989066267929</v>
+        <v>0.4273034161147678</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9984437465199915</v>
+        <v>0.4314279632660111</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9669289432387536</v>
+        <v>0.9802605839149038</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9886095113648001</v>
+        <v>0.8659266915363651</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000002</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9977251660949651</v>
+        <v>0.8712925590442896</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8353368705002285</v>
+        <v>0.7179141085889966</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5546627622694325</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.8939986958459575</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7299754418016589</v>
+        <v>0.8908604931488593</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1767967984187028</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9815552464906573</v>
+        <v>0.763820843167942</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9964622257091272</v>
+        <v>0.5546627622694326</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9977251660949651</v>
+        <v>0.8712925590442896</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8659266915363651</v>
+        <v>0.8689870168200716</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.8111083043072661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.8128509213144867</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8712925590442898</v>
+        <v>0.7414094260826336</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.990847012226948</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9687875471945941</v>
+        <v>0.92117670687452</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4148087179732577</v>
+        <v>0.7876251031811436</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8092409683013462</v>
+        <v>0.8010231130736929</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9415491058899723</v>
+        <v>0.6120321408226764</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9015811977009962</v>
+        <v>0.4226611546511724</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8353368705002285</v>
+        <v>0.7179141085889966</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8659266915363651</v>
+        <v>0.8689870168200716</v>
       </c>
       <c r="M13" t="n">
-        <v>1.000000000000001</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3774,455 +3774,455 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>16</v>
-      </c>
       <c r="E1" s="1" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>40</v>
-      </c>
       <c r="L1" s="1" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9933212618181998</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.8715607685519557</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.8111083043072661</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.6243486396460526</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.9145461311393663</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9483459191545409</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.878896552082704</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.8128509213144867</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.8333681331439882</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9933212618181998</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9483459191545409</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4359416840010828</v>
+        <v>0.8112522023724603</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5709743899761875</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8932861595488431</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9643388531673249</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3419916162851993</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="J4" t="n">
-        <v>0.281060828845354</v>
+        <v>0.7414094260826336</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1963994605490239</v>
+        <v>0.4078597798256571</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2415173466634291</v>
+        <v>0.7090385504210664</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.8715607685519557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.878896552082704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4359416840010828</v>
+        <v>0.8112522023724603</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.9644118375410596</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.8485768683303143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.8196535774279831</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.990847012226948</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.69982046883687</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.8939986958459575</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5206390095779966</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4078597798256571</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5709743899761875</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.9644118375410596</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4304843041025678</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9415491058899723</v>
+        <v>0.7721631910893918</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9015811977009964</v>
+        <v>0.92117670687452</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8092409683013462</v>
+        <v>0.6212451433533892</v>
       </c>
       <c r="L6" t="n">
-        <v>0.865926691536365</v>
+        <v>0.8908604931488593</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8932861595488431</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.8485768683303143</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4304843041025678</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.9965486819122765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="J7" t="n">
-        <v>0.200093059220486</v>
+        <v>0.7876251031811436</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1378996029960749</v>
+        <v>0.4273034161147678</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1706764226479466</v>
+        <v>0.7142561097261672</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9643388531673249</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6243486396460526</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.9965486819122765</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.5761736050262033</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3220811261336203</v>
+        <v>0.8010231130736929</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2280300057573117</v>
+        <v>0.4314279632660111</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2787360759562128</v>
+        <v>0.7081352091913564</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3419916162851993</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.8196535774279831</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9415491058899723</v>
+        <v>0.7721631910893918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.5761736050262033</v>
       </c>
       <c r="I9" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9940494262005268</v>
+        <v>0.8182302021279786</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9520357754910048</v>
+        <v>0.9687875471945941</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9815552464906573</v>
+        <v>0.9646528335593058</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.8111083043072661</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.8128509213144867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.281060828845354</v>
+        <v>0.7414094260826336</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.990847012226948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9015811977009964</v>
+        <v>0.92117670687452</v>
       </c>
       <c r="G10" t="n">
-        <v>0.200093059220486</v>
+        <v>0.7876251031811436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3220811261336203</v>
+        <v>0.8010231130736929</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9940494262005268</v>
+        <v>0.8182302021279786</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.7179141085889966</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9964622257091272</v>
+        <v>0.8689870168200716</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1609860844460738</v>
+        <v>0.6243486396460526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1071701885175071</v>
+        <v>0.5206390095779966</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1963994605490239</v>
+        <v>0.4078597798256571</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9011223345684092</v>
+        <v>0.69982046883687</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8092409683013462</v>
+        <v>0.6212451433533892</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1378996029960749</v>
+        <v>0.4273034161147678</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2280300057573117</v>
+        <v>0.4314279632660111</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9520357754910048</v>
+        <v>0.9687875471945941</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9789047620517961</v>
+        <v>0.7179141085889966</v>
       </c>
       <c r="K11" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.8712925590442896</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.9145461311393663</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.8333681331439882</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2415173466634291</v>
+        <v>0.7090385504210664</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9442798674991846</v>
+        <v>0.8939986958459575</v>
       </c>
       <c r="F12" t="n">
-        <v>0.865926691536365</v>
+        <v>0.8908604931488593</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1706764226479466</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2787360759562128</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9815552464906573</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9964622257091272</v>
+        <v>0.8689870168200716</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9924502498932439</v>
+        <v>0.8712925590442896</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -4246,279 +4246,279 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>16</v>
-      </c>
       <c r="E1" s="1" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="n">
         <v>36</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9933212618181999</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.8715607685519557</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.3874617546197744</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.8111083043072661</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8333681331439882</v>
+        <v>0.4860159163130412</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9483459191545407</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.878896552082704</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.2958259168869475</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.8128509213144867</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7090385504210664</v>
+        <v>0.3865897684483788</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9933212618181999</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9483459191545407</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4359416840010828</v>
+        <v>0.8112522023724603</v>
       </c>
       <c r="F4" t="n">
-        <v>0.731030936297938</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8932861595488433</v>
+        <v>0.9840532252592258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9643388531673249</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3419916162851993</v>
+        <v>0.2129359758219215</v>
       </c>
       <c r="J4" t="n">
-        <v>0.281060828845354</v>
+        <v>0.7414094260826336</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8666837512467015</v>
+        <v>0.2895383937668051</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.8715607685519557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2895383937668051</v>
+        <v>0.878896552082704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4359416840010828</v>
+        <v>0.8112522023724603</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9021079685708747</v>
+        <v>0.9644118375410595</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.8485768683303145</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.4911684441091116</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.990847012226948</v>
       </c>
       <c r="K5" t="n">
-        <v>0.763820843167942</v>
+        <v>0.5819320158540163</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.731030936297938</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9021079685708747</v>
+        <v>0.9644118375410595</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8335477810461152</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.92117670687452</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9646528335593058</v>
+        <v>0.4883252150102924</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8932861595488433</v>
+        <v>0.9840532252592258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.8485768683303145</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.9965486819122766</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="J7" t="n">
-        <v>0.200093059220486</v>
+        <v>0.7876251031811436</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6838665427032969</v>
+        <v>0.3097020075422921</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9643388531673249</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.9965486819122766</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.2388990052197547</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3220811261336202</v>
+        <v>0.801023113073693</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9145461311393663</v>
+        <v>0.3157422090468101</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4526,104 +4526,104 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
+        <v>0.3874617546197744</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.2958259168869475</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2129359758219215</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.3419916162851993</v>
-      </c>
       <c r="E9" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.4911684441091116</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8335477810461152</v>
+        <v>0.3929671090329547</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2466427054947357</v>
+        <v>0.232213107155899</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.2388990052197547</v>
       </c>
       <c r="I9" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9940494262005267</v>
+        <v>0.5272610232476541</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6731407481616736</v>
+        <v>0.9892170325671799</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.8111083043072661</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.8128509213144867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.281060828845354</v>
+        <v>0.7414094260826336</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9677703973004493</v>
+        <v>0.990847012226948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.92117670687452</v>
       </c>
       <c r="G10" t="n">
-        <v>0.200093059220486</v>
+        <v>0.7876251031811436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3220811261336202</v>
+        <v>0.801023113073693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9940494262005267</v>
+        <v>0.5272610232476541</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6048925114238637</v>
+        <v>0.6120321408226764</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8333681331439882</v>
+        <v>0.4860159163130412</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7090385504210664</v>
+        <v>0.3865897684483788</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8666837512467015</v>
+        <v>0.2895383937668051</v>
       </c>
       <c r="E11" t="n">
-        <v>0.763820843167942</v>
+        <v>0.5819320158540163</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9646528335593058</v>
+        <v>0.4883252150102924</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6838665427032969</v>
+        <v>0.3097020075422921</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9145461311393663</v>
+        <v>0.3157422090468101</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6731407481616736</v>
+        <v>0.9892170325671799</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6048925114238637</v>
+        <v>0.6120321408226764</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4647,319 +4647,319 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>28</v>
-      </c>
       <c r="E1" s="1" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635598</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3801173003970791</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.9188561297474037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1776117517368401</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.8111083043072661</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635598</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3308753967281376</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1194753585958128</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.8128509213144867</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3801173003970791</v>
+        <v>0.8659503811327621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3308753967281376</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4047042886721033</v>
+        <v>0.8716833685607683</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3875770043338153</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4410057215923135</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3783333913900662</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4264785241417594</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6004195721895985</v>
+        <v>0.7414094260826336</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2017130872970727</v>
+        <v>0.9188561297474037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1377363050044424</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4047042886721033</v>
+        <v>0.8716833685607683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999986</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9977251660949651</v>
+        <v>0.991257823926193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1706764226479466</v>
+        <v>0.8971590046666393</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2787360759562128</v>
+        <v>0.8990103372293136</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9964622257091275</v>
+        <v>0.8034061146367363</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3363900861747871</v>
+        <v>0.9635602581095074</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1776117517368401</v>
+        <v>0.9497979102505977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1194753585958128</v>
+        <v>0.9715412042515472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3875770043338153</v>
+        <v>0.9180232507151763</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9977251660949651</v>
+        <v>0.991257823926193</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1513228821885325</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2491087035642826</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9886095113648001</v>
+        <v>0.7721631910893918</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3058774640615416</v>
+        <v>0.92117670687452</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.843874066442475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.9434117165765913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4410057215923135</v>
+        <v>0.984053225259226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1706764226479466</v>
+        <v>0.8971590046666393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1513228821885325</v>
+        <v>0.9293370490818563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.9965486819122766</v>
       </c>
       <c r="I7" t="n">
-        <v>0.200093059220486</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8862644658988938</v>
+        <v>0.7876251031811436</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.8239910963466709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.9237895706773891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3783333913900662</v>
+        <v>0.9661145249305612</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2787360759562128</v>
+        <v>0.8990103372293136</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2491087035642826</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.9965486819122766</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3220811261336202</v>
+        <v>0.5761736050262032</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9188561297474036</v>
+        <v>0.801023113073693</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2382965135528327</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1663181554402454</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4264785241417594</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9964622257091275</v>
+        <v>0.8034061146367363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9886095113648001</v>
+        <v>0.7721631910893918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.200093059220486</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3220811261336202</v>
+        <v>0.5761736050262032</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3801335224260193</v>
+        <v>0.8182302021279786</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.8111083043072661</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.8128509213144867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6004195721895985</v>
+        <v>0.7414094260826336</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3363900861747871</v>
+        <v>0.9635602581095074</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3058774640615416</v>
+        <v>0.92117670687452</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8862644658988938</v>
+        <v>0.7876251031811436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9188561297474036</v>
+        <v>0.801023113073693</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3801335224260193</v>
+        <v>0.8182302021279786</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4983,173 +4983,173 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>27</v>
-      </c>
       <c r="E1" s="1" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4116534314461531</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9188561297474036</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.5483906589361066</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8737306524408875</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.1910918658449055</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.7839818249638393</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3586150556983069</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.289538393766805</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.5439062248226167</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9188405370792183</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.1329649321737891</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6854042142631881</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4116534314461531</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3586150556983069</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5154378633128478</v>
+        <v>0.8716833685607683</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6355534925172799</v>
+        <v>0.4786118814753418</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4703926999317686</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4116977693944581</v>
+        <v>0.08688906367264276</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4789842589106109</v>
+        <v>0.5611891528086587</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3865897684483788</v>
+        <v>0.9188561297474036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.289538393766805</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5154378633128478</v>
+        <v>0.8716833685607683</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5389798204549603</v>
+        <v>0.7676634317177649</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.8862644658988938</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.2437977885757015</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.8034061146367363</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.5483906589361066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.5439062248226167</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6355534925172799</v>
+        <v>0.4786118814753418</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5389798204549603</v>
+        <v>0.7676634317177649</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8862644658988941</v>
+        <v>0.5902588966414448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9188561297474036</v>
+        <v>0.3846509966124965</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4445959664112384</v>
+        <v>0.6873805528831906</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5157,86 +5157,86 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>0.7746182614176115</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.8737306524408875</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.9188405370792183</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.4703926999317686</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.3206466404120449</v>
+        <v>0.8862644658988938</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8862644658988941</v>
+        <v>0.5902588966414448</v>
       </c>
       <c r="G7" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.1146522229016468</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2466427054947358</v>
+        <v>0.5651793414145034</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.1910918658449055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.1329649321737891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4116977693944581</v>
+        <v>0.08688906367264276</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4860159163130412</v>
+        <v>0.2437977885757015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9188561297474036</v>
+        <v>0.3846509966124965</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7746182614176115</v>
+        <v>0.1146522229016468</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.6031118346431561</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2958259168869475</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2129359758219215</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4789842589106109</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9892170325671797</v>
+        <v>0.8034061146367363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4445959664112384</v>
+        <v>0.6873805528831906</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2466427054947358</v>
+        <v>0.5651793414145034</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3874617546197744</v>
+        <v>0.6031118346431561</v>
       </c>
       <c r="I9" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -5260,207 +5260,207 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>26</v>
-      </c>
       <c r="E1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
         <v>33</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9632363915993691</v>
+        <v>0.9647147743635599</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4488179478535682</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9188561297474037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.6080253075392458</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.7839818249638393</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
+        <v>0.9647147743635599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.9632363915993691</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.000000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3917462533959553</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.6031204457537479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.892628352092997</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.6854042142631881</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4488179478535682</v>
+        <v>0.8659503811327622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3917462533959553</v>
+        <v>0.9632363915993691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999999984</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6021682640940086</v>
+        <v>0.8716833685607682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6750582962482081</v>
+        <v>0.5342022019651212</v>
       </c>
       <c r="G4" t="n">
-        <v>0.518010227210831</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4506209732569184</v>
+        <v>0.5611891528086587</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6854042142631881</v>
+        <v>0.9188561297474037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5611891528086587</v>
+        <v>0.9331053480012905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6021682640940086</v>
+        <v>0.8716833685607682</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
+        <v>0.819525258597701</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8862644658988938</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.8034061146367363</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5558926012537588</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7839818249638393</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9331053480012905</v>
+        <v>0.6080253075392458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8716833685607682</v>
+        <v>0.6031204457537479</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6750582962482081</v>
+        <v>0.5342022019651212</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8034061146367363</v>
+        <v>0.819525258597701</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8742892368761832</v>
+        <v>0.642024806624959</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9188561297474036</v>
+        <v>0.7300625970111919</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8464003326674895</v>
+        <v>0.7746182614176115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892628352092997</v>
+        <v>0.8737306524408875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.518010227210831</v>
+        <v>0.9188405370792183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5558926012537588</v>
+        <v>0.8862644658988938</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8742892368761832</v>
+        <v>0.642024806624959</v>
       </c>
       <c r="G7" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.5651793414145034</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9647147743635598</v>
+        <v>0.7839818249638393</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8659503811327621</v>
+        <v>0.6854042142631881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4506209732569184</v>
+        <v>0.5611891528086587</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7839818249638393</v>
+        <v>0.8034061146367363</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9188561297474036</v>
+        <v>0.7300625970111919</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7480116584051614</v>
+        <v>0.5651793414145034</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
   </sheetData>
